--- a/data/GSA_info.xlsx
+++ b/data/GSA_info.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Project Resources\Ag Water\Annual Reports\Kings Basin\WQ\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD5C602-33B9-4361-BD81-9F7E56DD0A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E48D62-2001-4CE7-A05D-36EB1AE5683B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="2232" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="2232" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chemical_crosswalk" sheetId="1" r:id="rId1"/>
     <sheet name="public_wells" sheetId="2" r:id="rId2"/>
+    <sheet name="secondary_mcl" sheetId="4" r:id="rId3"/>
+    <sheet name="trial" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="526">
   <si>
     <t>pp_name</t>
   </si>
@@ -136,9 +138,6 @@
   </si>
   <si>
     <t>LEAD</t>
-  </si>
-  <si>
-    <t>NITRATE (AS N)</t>
   </si>
   <si>
     <t>1,2,3-Trichloropropane</t>
@@ -1335,6 +1334,327 @@
   <si>
     <t>Ur
 (pCi/L)</t>
+  </si>
+  <si>
+    <t>Analyte Name</t>
+  </si>
+  <si>
+    <t>HARDNESS, TOTAL (AS CACO3)</t>
+  </si>
+  <si>
+    <t>BROMOMETHANE</t>
+  </si>
+  <si>
+    <t>FOAMING AGENTS (SURFACTANTS)</t>
+  </si>
+  <si>
+    <t>TOLUENE</t>
+  </si>
+  <si>
+    <t>1,1-DICHLOROETHYLENE</t>
+  </si>
+  <si>
+    <t>COPPER, FREE</t>
+  </si>
+  <si>
+    <t>4-METHYL-2-PENTANONE</t>
+  </si>
+  <si>
+    <t>CARBON TETRACHLORIDE</t>
+  </si>
+  <si>
+    <t>N-PROPYLBENZENE</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>DIBROMOMETHANE</t>
+  </si>
+  <si>
+    <t>1,2-DICHLOROPROPANE</t>
+  </si>
+  <si>
+    <t>TERT-AMYL-METHYL ETHER</t>
+  </si>
+  <si>
+    <t>MERCURY</t>
+  </si>
+  <si>
+    <t>BARIUM</t>
+  </si>
+  <si>
+    <t>ETHYLENE DIBROMIDE</t>
+  </si>
+  <si>
+    <t>CHROMIUM</t>
+  </si>
+  <si>
+    <t>TERTIARY BUTYL ALCOHOL (TBA)</t>
+  </si>
+  <si>
+    <t>1,3-DICHLOROPROPENE</t>
+  </si>
+  <si>
+    <t>CONDUCTIVITY @ 25 C UMHOS/CM</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>1,2,3-TRICHLOROBENZENE</t>
+  </si>
+  <si>
+    <t>1,3,5-TRIMETHYLBENZENE</t>
+  </si>
+  <si>
+    <t>O-CHLOROTOLUENE</t>
+  </si>
+  <si>
+    <t>LASSO</t>
+  </si>
+  <si>
+    <t>ALKALINITY, CARBONATE</t>
+  </si>
+  <si>
+    <t>NITRATE (AS NO3)</t>
+  </si>
+  <si>
+    <t>TURBIDITY</t>
+  </si>
+  <si>
+    <t>LANGELIER INDEX (PH(S))</t>
+  </si>
+  <si>
+    <t>SEC-BUTYLBENZENE</t>
+  </si>
+  <si>
+    <t>1,1-DICHLOROETHANE</t>
+  </si>
+  <si>
+    <t>HEXACHLOROBUTADIENE</t>
+  </si>
+  <si>
+    <t>NITRATE-NITRITE</t>
+  </si>
+  <si>
+    <t>TTHM</t>
+  </si>
+  <si>
+    <t>METHYL ETHYL KETONE</t>
+  </si>
+  <si>
+    <t>M-DICHLOROBENZENE</t>
+  </si>
+  <si>
+    <t>STYRENE</t>
+  </si>
+  <si>
+    <t>DICHLOROMETHANE</t>
+  </si>
+  <si>
+    <t>BROMODICHLOROMETHANE</t>
+  </si>
+  <si>
+    <t>1,2,4-TRICHLOROBENZENE</t>
+  </si>
+  <si>
+    <t>VINYL CHLORIDE</t>
+  </si>
+  <si>
+    <t>ETHYLBENZENE</t>
+  </si>
+  <si>
+    <t>ZINC</t>
+  </si>
+  <si>
+    <t>DIBROMOCHLOROMETHANE</t>
+  </si>
+  <si>
+    <t>AGGRESSIVE INDEX</t>
+  </si>
+  <si>
+    <t>NITRITE</t>
+  </si>
+  <si>
+    <t>THALLIUM, TOTAL</t>
+  </si>
+  <si>
+    <t>ATRAZINE</t>
+  </si>
+  <si>
+    <t>CIS-1,3-DICHLOROPROPENE</t>
+  </si>
+  <si>
+    <t>1,1,1-TRICHLOROETHANE</t>
+  </si>
+  <si>
+    <t>P-DICHLOROBENZENE</t>
+  </si>
+  <si>
+    <t>1,1,2,2-TETRACHLOROETHANE</t>
+  </si>
+  <si>
+    <t>DICHLORODIFLUOROMETHANE</t>
+  </si>
+  <si>
+    <t>CIS-1,2-DICHLOROETHYLENE</t>
+  </si>
+  <si>
+    <t>ALKALINITY, TOTAL</t>
+  </si>
+  <si>
+    <t>O-XYLENE</t>
+  </si>
+  <si>
+    <t>BROMOBENZENE</t>
+  </si>
+  <si>
+    <t>BENZENE</t>
+  </si>
+  <si>
+    <t>ISOPROPYL ETHER</t>
+  </si>
+  <si>
+    <t>SULFATE</t>
+  </si>
+  <si>
+    <t>TERT-BUTYLBENZENE</t>
+  </si>
+  <si>
+    <t>CHLOROBENZENE</t>
+  </si>
+  <si>
+    <t>1,2,4-TRIMETHYLBENZENE</t>
+  </si>
+  <si>
+    <t>NAPHTHALENE</t>
+  </si>
+  <si>
+    <t>ANTIMONY, TOTAL</t>
+  </si>
+  <si>
+    <t>1,1,2-TRICHLOROETHANE</t>
+  </si>
+  <si>
+    <t>BROMOFORM</t>
+  </si>
+  <si>
+    <t>HYDROXIDE AS CALCIUM CARBONATE</t>
+  </si>
+  <si>
+    <t>ISOPROPYLBENZENE</t>
+  </si>
+  <si>
+    <t>CHLOROFORM</t>
+  </si>
+  <si>
+    <t>TRANS-1,3-DICHLOROPROPENE</t>
+  </si>
+  <si>
+    <t>ALKALINITY, BICARBONATE</t>
+  </si>
+  <si>
+    <t>BERYLLIUM, TOTAL</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>TRICHLOROFLUOROMETHANE</t>
+  </si>
+  <si>
+    <t>CADMIUM</t>
+  </si>
+  <si>
+    <t>MAGNESIUM</t>
+  </si>
+  <si>
+    <t>SIMAZINE</t>
+  </si>
+  <si>
+    <t>CALCIUM</t>
+  </si>
+  <si>
+    <t>N-BUTYLBENZENE</t>
+  </si>
+  <si>
+    <t>POTASSIUM</t>
+  </si>
+  <si>
+    <t>P-CHLOROTOLUENE</t>
+  </si>
+  <si>
+    <t>ETHYL-TERT-BUTYL ETHER</t>
+  </si>
+  <si>
+    <t>1,3-DICHLOROPROPANE</t>
+  </si>
+  <si>
+    <t>BROMOCHLOROMETHANE</t>
+  </si>
+  <si>
+    <t>O-DICHLOROBENZENE</t>
+  </si>
+  <si>
+    <t>TRICHLOROTRIFLUOROETHANE</t>
+  </si>
+  <si>
+    <t>1,1-DICHLOROPROPENE</t>
+  </si>
+  <si>
+    <t>XYLENE, META AND PARA</t>
+  </si>
+  <si>
+    <t>1,1,1,2-TETRACHLOROETHANE</t>
+  </si>
+  <si>
+    <t>TRANS-1,2-DICHLOROETHYLENE</t>
+  </si>
+  <si>
+    <t>NICKEL</t>
+  </si>
+  <si>
+    <t>CHLOROETHANE</t>
+  </si>
+  <si>
+    <t>2,2-DICHLOROPROPANE</t>
+  </si>
+  <si>
+    <t>SELENIUM</t>
+  </si>
+  <si>
+    <t>PERCHLORATE</t>
+  </si>
+  <si>
+    <t>CHLOROMETHANE</t>
+  </si>
+  <si>
+    <t>1,2-DICHLOROETHANE</t>
+  </si>
+  <si>
+    <t>XYLENES, TOTAL</t>
+  </si>
+  <si>
+    <t>P-ISOPROPYLTOLUENE</t>
+  </si>
+  <si>
+    <t>CYANIDE</t>
+  </si>
+  <si>
+    <t>ODOR</t>
+  </si>
+  <si>
+    <t>ACETONE</t>
+  </si>
+  <si>
+    <t>Analyte</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1673,7 +1995,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1690,7 +2012,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1702,12 +2024,12 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1719,12 +2041,12 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1736,12 +2058,12 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1753,12 +2075,12 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1770,12 +2092,12 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1787,12 +2109,12 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1804,12 +2126,12 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1821,12 +2143,12 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1838,12 +2160,12 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1855,12 +2177,12 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1872,12 +2194,12 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1889,12 +2211,12 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -1906,12 +2228,12 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -1923,32 +2245,32 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1957,12 +2279,12 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1974,80 +2296,80 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -2059,63 +2381,63 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
         <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -2127,49 +2449,49 @@
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
         <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -2178,63 +2500,63 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -2246,12 +2568,12 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -2263,12 +2585,12 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
@@ -2280,12 +2602,12 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -2297,12 +2619,12 @@
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
         <v>31</v>
@@ -2314,32 +2636,32 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -2348,12 +2670,12 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -2365,46 +2687,46 @@
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
         <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
         <v>51</v>
-      </c>
-      <c r="C43" t="s">
-        <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -2416,63 +2738,63 @@
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
         <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -2484,12 +2806,12 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -2501,12 +2823,12 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2518,12 +2840,12 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -2535,12 +2857,12 @@
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
@@ -2552,15 +2874,15 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2569,15 +2891,15 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2586,32 +2908,32 @@
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2620,15 +2942,15 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -2637,15 +2959,15 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>22</v>
@@ -2654,15 +2976,15 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
@@ -2671,15 +2993,15 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
@@ -2688,15 +3010,15 @@
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
@@ -2705,7 +3027,7 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2732,1736 +3054,2756 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
       <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
         <v>173</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>174</v>
-      </c>
-      <c r="E2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
         <v>176</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>177</v>
-      </c>
-      <c r="E3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
         <v>179</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>180</v>
-      </c>
-      <c r="E4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
         <v>182</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>183</v>
-      </c>
-      <c r="E5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
         <v>185</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
         <v>187</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
         <v>189</v>
-      </c>
-      <c r="D8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" t="s">
         <v>191</v>
-      </c>
-      <c r="D9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
         <v>193</v>
-      </c>
-      <c r="D10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" t="s">
         <v>195</v>
-      </c>
-      <c r="D11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E11" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" t="s">
         <v>197</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>198</v>
-      </c>
-      <c r="E12" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" t="s">
         <v>200</v>
-      </c>
-      <c r="D13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
         <v>202</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>203</v>
-      </c>
-      <c r="E14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
         <v>205</v>
-      </c>
-      <c r="D15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" t="s">
         <v>207</v>
-      </c>
-      <c r="D16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
         <v>209</v>
-      </c>
-      <c r="D17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" t="s">
         <v>211</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" t="s">
         <v>213</v>
-      </c>
-      <c r="D19" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" t="s">
         <v>215</v>
-      </c>
-      <c r="D20" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" t="s">
         <v>217</v>
-      </c>
-      <c r="D21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
         <v>219</v>
-      </c>
-      <c r="D22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" t="s">
         <v>221</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>222</v>
-      </c>
-      <c r="E23" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" t="s">
         <v>224</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>225</v>
-      </c>
-      <c r="E24" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" t="s">
         <v>227</v>
-      </c>
-      <c r="E25" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" t="s">
         <v>229</v>
-      </c>
-      <c r="E26" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" t="s">
         <v>231</v>
-      </c>
-      <c r="E27" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" t="s">
         <v>233</v>
-      </c>
-      <c r="E28" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" t="s">
         <v>235</v>
-      </c>
-      <c r="E29" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" t="s">
         <v>237</v>
-      </c>
-      <c r="E30" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" t="s">
         <v>239</v>
-      </c>
-      <c r="E31" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" t="s">
         <v>241</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>242</v>
-      </c>
-      <c r="E32" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" t="s">
         <v>244</v>
-      </c>
-      <c r="E33" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" t="s">
         <v>246</v>
-      </c>
-      <c r="E34" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" t="s">
         <v>248</v>
-      </c>
-      <c r="D35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" t="s">
         <v>250</v>
-      </c>
-      <c r="D36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
         <v>101</v>
       </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
       <c r="C37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
         <v>252</v>
-      </c>
-      <c r="D37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" t="s">
         <v>254</v>
-      </c>
-      <c r="D38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
         <v>256</v>
-      </c>
-      <c r="D39" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" t="s">
         <v>258</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>259</v>
-      </c>
-      <c r="E40" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
         <v>261</v>
-      </c>
-      <c r="D41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" t="s">
         <v>263</v>
-      </c>
-      <c r="D42" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" t="s">
         <v>266</v>
-      </c>
-      <c r="D44" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" t="s">
         <v>268</v>
-      </c>
-      <c r="D45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D47" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" t="s">
         <v>271</v>
-      </c>
-      <c r="E47" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" t="s">
         <v>274</v>
-      </c>
-      <c r="D49" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" t="s">
         <v>277</v>
-      </c>
-      <c r="D51" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" t="s">
         <v>279</v>
-      </c>
-      <c r="D52" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
         <v>118</v>
       </c>
-      <c r="B53" t="s">
-        <v>119</v>
-      </c>
       <c r="C53" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" t="s">
         <v>281</v>
-      </c>
-      <c r="D53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" t="s">
         <v>283</v>
-      </c>
-      <c r="D54" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" t="s">
         <v>285</v>
-      </c>
-      <c r="D55" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" t="s">
         <v>287</v>
-      </c>
-      <c r="D56" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" t="s">
         <v>289</v>
-      </c>
-      <c r="D57" t="s">
-        <v>198</v>
-      </c>
-      <c r="E57" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" t="s">
         <v>291</v>
-      </c>
-      <c r="D58" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" t="s">
         <v>293</v>
-      </c>
-      <c r="D59" t="s">
-        <v>174</v>
-      </c>
-      <c r="E59" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
         <v>295</v>
-      </c>
-      <c r="D60" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
         <v>127</v>
       </c>
-      <c r="B61" t="s">
-        <v>128</v>
-      </c>
       <c r="C61" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" t="s">
         <v>297</v>
-      </c>
-      <c r="D61" t="s">
-        <v>180</v>
-      </c>
-      <c r="E61" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" t="s">
         <v>299</v>
-      </c>
-      <c r="D62" t="s">
-        <v>198</v>
-      </c>
-      <c r="E62" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" t="s">
+        <v>300</v>
+      </c>
+      <c r="D63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" t="s">
         <v>301</v>
-      </c>
-      <c r="D63" t="s">
-        <v>174</v>
-      </c>
-      <c r="E63" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" t="s">
         <v>303</v>
-      </c>
-      <c r="D64" t="s">
-        <v>198</v>
-      </c>
-      <c r="E64" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" t="s">
         <v>305</v>
-      </c>
-      <c r="D65" t="s">
-        <v>183</v>
-      </c>
-      <c r="E65" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" t="s">
         <v>307</v>
-      </c>
-      <c r="D66" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" t="s">
         <v>309</v>
-      </c>
-      <c r="D67" t="s">
-        <v>246</v>
-      </c>
-      <c r="E67" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" t="s">
         <v>311</v>
-      </c>
-      <c r="D68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" t="s">
         <v>313</v>
-      </c>
-      <c r="D69" t="s">
-        <v>246</v>
-      </c>
-      <c r="E69" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D70" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" t="s">
         <v>315</v>
-      </c>
-      <c r="D70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E70" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
+        <v>316</v>
+      </c>
+      <c r="D71" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" t="s">
         <v>317</v>
-      </c>
-      <c r="D71" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
+        <v>318</v>
+      </c>
+      <c r="D72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" t="s">
         <v>319</v>
-      </c>
-      <c r="D72" t="s">
-        <v>198</v>
-      </c>
-      <c r="E72" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" t="s">
         <v>321</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>322</v>
-      </c>
-      <c r="E73" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" t="s">
         <v>324</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>325</v>
-      </c>
-      <c r="E74" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
+        <v>326</v>
+      </c>
+      <c r="D75" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" t="s">
         <v>327</v>
-      </c>
-      <c r="D75" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
         <v>143</v>
       </c>
-      <c r="B76" t="s">
-        <v>144</v>
-      </c>
       <c r="C76" t="s">
+        <v>328</v>
+      </c>
+      <c r="D76" t="s">
+        <v>321</v>
+      </c>
+      <c r="E76" t="s">
         <v>329</v>
-      </c>
-      <c r="D76" t="s">
-        <v>322</v>
-      </c>
-      <c r="E76" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
+        <v>330</v>
+      </c>
+      <c r="D77" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" t="s">
         <v>331</v>
-      </c>
-      <c r="D77" t="s">
-        <v>198</v>
-      </c>
-      <c r="E77" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" t="s">
         <v>148</v>
       </c>
-      <c r="B80" t="s">
-        <v>149</v>
-      </c>
       <c r="C80" t="s">
+        <v>334</v>
+      </c>
+      <c r="D80" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" t="s">
         <v>335</v>
-      </c>
-      <c r="D80" t="s">
-        <v>174</v>
-      </c>
-      <c r="E80" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" t="s">
+        <v>336</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" t="s">
         <v>337</v>
-      </c>
-      <c r="D81" t="s">
-        <v>174</v>
-      </c>
-      <c r="E81" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
+        <v>338</v>
+      </c>
+      <c r="D82" t="s">
         <v>339</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>340</v>
-      </c>
-      <c r="E82" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" t="s">
+        <v>341</v>
+      </c>
+      <c r="D83" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" t="s">
         <v>342</v>
-      </c>
-      <c r="D83" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" t="s">
         <v>344</v>
-      </c>
-      <c r="D84" t="s">
-        <v>174</v>
-      </c>
-      <c r="E84" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
+        <v>345</v>
+      </c>
+      <c r="D85" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" t="s">
         <v>346</v>
-      </c>
-      <c r="D85" t="s">
-        <v>198</v>
-      </c>
-      <c r="E85" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
+        <v>347</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" t="s">
         <v>348</v>
-      </c>
-      <c r="D86" t="s">
-        <v>174</v>
-      </c>
-      <c r="E86" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" t="s">
         <v>350</v>
-      </c>
-      <c r="D87" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" t="s">
         <v>352</v>
-      </c>
-      <c r="D88" t="s">
-        <v>174</v>
-      </c>
-      <c r="E88" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89" t="s">
         <v>354</v>
-      </c>
-      <c r="D89" t="s">
-        <v>174</v>
-      </c>
-      <c r="E89" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" t="s">
         <v>356</v>
-      </c>
-      <c r="D90" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
+        <v>357</v>
+      </c>
+      <c r="D91" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" t="s">
         <v>358</v>
-      </c>
-      <c r="D91" t="s">
-        <v>180</v>
-      </c>
-      <c r="E91" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" t="s">
         <v>360</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>361</v>
-      </c>
-      <c r="E92" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D93" t="s">
+        <v>362</v>
+      </c>
+      <c r="E93" t="s">
         <v>363</v>
-      </c>
-      <c r="E93" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" t="s">
+        <v>364</v>
+      </c>
+      <c r="D94" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" t="s">
         <v>365</v>
-      </c>
-      <c r="D94" t="s">
-        <v>259</v>
-      </c>
-      <c r="E94" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" t="s">
         <v>164</v>
       </c>
-      <c r="B95" t="s">
-        <v>165</v>
-      </c>
       <c r="C95" t="s">
+        <v>366</v>
+      </c>
+      <c r="D95" t="s">
+        <v>321</v>
+      </c>
+      <c r="E95" t="s">
         <v>367</v>
-      </c>
-      <c r="D95" t="s">
-        <v>322</v>
-      </c>
-      <c r="E95" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D96" t="s">
+        <v>368</v>
+      </c>
+      <c r="E96" t="s">
         <v>369</v>
-      </c>
-      <c r="E96" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" t="s">
+        <v>370</v>
+      </c>
+      <c r="D97" t="s">
+        <v>368</v>
+      </c>
+      <c r="E97" t="s">
         <v>371</v>
-      </c>
-      <c r="D97" t="s">
-        <v>369</v>
-      </c>
-      <c r="E97" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D98" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C99" t="s">
+        <v>373</v>
+      </c>
+      <c r="D99" t="s">
+        <v>360</v>
+      </c>
+      <c r="E99" t="s">
         <v>374</v>
-      </c>
-      <c r="D99" t="s">
-        <v>361</v>
-      </c>
-      <c r="E99" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E100" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C101" t="s">
+        <v>376</v>
+      </c>
+      <c r="D101" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" t="s">
         <v>377</v>
-      </c>
-      <c r="D101" t="s">
-        <v>198</v>
-      </c>
-      <c r="E101" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D102" t="s">
+        <v>378</v>
+      </c>
+      <c r="E102" t="s">
         <v>379</v>
       </c>
-      <c r="E102" t="s">
-        <v>380</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFE0763-FBCB-4A54-88FF-72BAFFBB2F2A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742B09EB-C357-4635-AAC4-E75B1E54531E}">
+  <dimension ref="A1:B121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
